--- a/data/pca/factorExposure/factorExposure_2013-03-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-03-07.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0003129350806335164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.002147965560635277</v>
+      </c>
+      <c r="C2">
+        <v>-0.03205569843204706</v>
+      </c>
+      <c r="D2">
+        <v>-0.001097972583448581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001900040714798088</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006094167835995565</v>
+      </c>
+      <c r="C4">
+        <v>-0.08467665333204306</v>
+      </c>
+      <c r="D4">
+        <v>-0.08033929082777402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0007057956560497867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01357346326848105</v>
+      </c>
+      <c r="C6">
+        <v>-0.1124341508683726</v>
+      </c>
+      <c r="D6">
+        <v>-0.03125484364177121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001592427444760153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004797173795325391</v>
+      </c>
+      <c r="C7">
+        <v>-0.05697267758101273</v>
+      </c>
+      <c r="D7">
+        <v>-0.03290630058776191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0003648745120721616</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005713126502780353</v>
+      </c>
+      <c r="C8">
+        <v>-0.03915374570630308</v>
+      </c>
+      <c r="D8">
+        <v>-0.04280335433582855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004197638961969518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004168718370147522</v>
+      </c>
+      <c r="C9">
+        <v>-0.07056564127910714</v>
+      </c>
+      <c r="D9">
+        <v>-0.07080252762861447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004406836371053175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005347953909111254</v>
+      </c>
+      <c r="C10">
+        <v>-0.06040953959072312</v>
+      </c>
+      <c r="D10">
+        <v>0.2021930202422612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002683878111391353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005392375166008205</v>
+      </c>
+      <c r="C11">
+        <v>-0.08065259586543656</v>
+      </c>
+      <c r="D11">
+        <v>-0.05995321857591542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0002880390062642884</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004002187022028293</v>
+      </c>
+      <c r="C12">
+        <v>-0.06472345741708042</v>
+      </c>
+      <c r="D12">
+        <v>-0.04481213831227308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003266487797615758</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008611726513063996</v>
+      </c>
+      <c r="C13">
+        <v>-0.06745976691403972</v>
+      </c>
+      <c r="D13">
+        <v>-0.06766521195999517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001266532733079761</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001473548843296896</v>
+      </c>
+      <c r="C14">
+        <v>-0.04708388424407315</v>
+      </c>
+      <c r="D14">
+        <v>-0.008996536917568736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009947649098855853</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005883276911428477</v>
+      </c>
+      <c r="C15">
+        <v>-0.04300680954265548</v>
+      </c>
+      <c r="D15">
+        <v>-0.03056358375471963</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001214835139929409</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004963358503692871</v>
+      </c>
+      <c r="C16">
+        <v>-0.06663295093523039</v>
+      </c>
+      <c r="D16">
+        <v>-0.04508291044797717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>8.32227698770103e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008797273341291786</v>
+      </c>
+      <c r="C20">
+        <v>-0.06736518757122295</v>
+      </c>
+      <c r="D20">
+        <v>-0.04668688814807528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005139235562221781</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.00978496341297716</v>
+      </c>
+      <c r="C21">
+        <v>-0.02389573273160278</v>
+      </c>
+      <c r="D21">
+        <v>-0.03346440195521933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01778143497955647</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006757332334412215</v>
+      </c>
+      <c r="C22">
+        <v>-0.09541212496739314</v>
+      </c>
+      <c r="D22">
+        <v>-0.09867552938605802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01809377086191769</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006577411326948801</v>
+      </c>
+      <c r="C23">
+        <v>-0.09620463384505899</v>
+      </c>
+      <c r="D23">
+        <v>-0.0988022205539443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001869305751452953</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005070172939688491</v>
+      </c>
+      <c r="C24">
+        <v>-0.07598962259257556</v>
+      </c>
+      <c r="D24">
+        <v>-0.05792527542244494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003825178031854618</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002784995418653625</v>
+      </c>
+      <c r="C25">
+        <v>-0.0783489883897947</v>
+      </c>
+      <c r="D25">
+        <v>-0.06517500000945935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005658809649036026</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003500840593792606</v>
+      </c>
+      <c r="C26">
+        <v>-0.04165712227050063</v>
+      </c>
+      <c r="D26">
+        <v>-0.0239401809500878</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.00395059822999023</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001216230262365605</v>
+      </c>
+      <c r="C28">
+        <v>-0.1068568115106527</v>
+      </c>
+      <c r="D28">
+        <v>0.319132873472656</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0009238350311381647</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003020143938979843</v>
+      </c>
+      <c r="C29">
+        <v>-0.0495593380898301</v>
+      </c>
+      <c r="D29">
+        <v>-0.004206767826345712</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003218147208621834</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008964003021804537</v>
+      </c>
+      <c r="C30">
+        <v>-0.1447804170546644</v>
+      </c>
+      <c r="D30">
+        <v>-0.1008145453442079</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001002011422568249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.00608130809978751</v>
+      </c>
+      <c r="C31">
+        <v>-0.04493298797525189</v>
+      </c>
+      <c r="D31">
+        <v>-0.03331311880323001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0001056661442097974</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003795246704923787</v>
+      </c>
+      <c r="C32">
+        <v>-0.04131314566339783</v>
+      </c>
+      <c r="D32">
+        <v>-0.02112430230094313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003005204209077164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008027781399067187</v>
+      </c>
+      <c r="C33">
+        <v>-0.08697387766827723</v>
+      </c>
+      <c r="D33">
+        <v>-0.06984841129648432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004252121575503152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003802910978725056</v>
+      </c>
+      <c r="C34">
+        <v>-0.05853566207549088</v>
+      </c>
+      <c r="D34">
+        <v>-0.05053382398550618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002404588546572142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004844436501994239</v>
+      </c>
+      <c r="C35">
+        <v>-0.04011918538177139</v>
+      </c>
+      <c r="D35">
+        <v>-0.01379505393486741</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003889112879273498</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001444878841281906</v>
+      </c>
+      <c r="C36">
+        <v>-0.02437030945504095</v>
+      </c>
+      <c r="D36">
+        <v>-0.02114990386738977</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002690362802774105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.00940447313255866</v>
+      </c>
+      <c r="C38">
+        <v>-0.03355955518447248</v>
+      </c>
+      <c r="D38">
+        <v>-0.01812394462489865</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01239608770855762</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0009657200132074909</v>
+      </c>
+      <c r="C39">
+        <v>-0.1176787001188622</v>
+      </c>
+      <c r="D39">
+        <v>-0.07150214441063291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009187983822364378</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002115861392080226</v>
+      </c>
+      <c r="C40">
+        <v>-0.08902870019799364</v>
+      </c>
+      <c r="D40">
+        <v>-0.01582193401015944</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0002981384699443596</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007206298329057254</v>
+      </c>
+      <c r="C41">
+        <v>-0.03830881681683734</v>
+      </c>
+      <c r="D41">
+        <v>-0.03447732198453571</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003080994770330922</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003556758559667292</v>
+      </c>
+      <c r="C43">
+        <v>-0.05203133149719781</v>
+      </c>
+      <c r="D43">
+        <v>-0.02379443924537197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.00286047901258226</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003153322992744907</v>
+      </c>
+      <c r="C44">
+        <v>-0.1122295050257557</v>
+      </c>
+      <c r="D44">
+        <v>-0.07108905048929116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001389378562300518</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002309845330071558</v>
+      </c>
+      <c r="C46">
+        <v>-0.03498759039043058</v>
+      </c>
+      <c r="D46">
+        <v>-0.0292784916674547</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0001734559637589529</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002684706176086337</v>
+      </c>
+      <c r="C47">
+        <v>-0.03744809745802338</v>
+      </c>
+      <c r="D47">
+        <v>-0.02682918768533805</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003690846885902148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006339580882698956</v>
+      </c>
+      <c r="C48">
+        <v>-0.02902188481484605</v>
+      </c>
+      <c r="D48">
+        <v>-0.03119662203485206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01341225095458661</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01460122237612598</v>
+      </c>
+      <c r="C49">
+        <v>-0.1828234505014502</v>
+      </c>
+      <c r="D49">
+        <v>-0.0142710046090328</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006385233939538386</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003575835698370287</v>
+      </c>
+      <c r="C50">
+        <v>-0.04440444318022052</v>
+      </c>
+      <c r="D50">
+        <v>-0.03570074423741827</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0006659444287960718</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004229690852899223</v>
+      </c>
+      <c r="C51">
+        <v>-0.02499520620112178</v>
+      </c>
+      <c r="D51">
+        <v>-0.02102849219923134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0004998002080389202</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02033371108892301</v>
+      </c>
+      <c r="C53">
+        <v>-0.1688833372006459</v>
+      </c>
+      <c r="D53">
+        <v>-0.03868780231498833</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001597307363304499</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008627983501987641</v>
+      </c>
+      <c r="C54">
+        <v>-0.05593770656431148</v>
+      </c>
+      <c r="D54">
+        <v>-0.04173042917231296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004346533661347267</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009338283187794571</v>
+      </c>
+      <c r="C55">
+        <v>-0.1097429158213012</v>
+      </c>
+      <c r="D55">
+        <v>-0.04589158253699836</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002849438277654012</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01971447911902756</v>
+      </c>
+      <c r="C56">
+        <v>-0.1753475567613364</v>
+      </c>
+      <c r="D56">
+        <v>-0.03619136322030126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007030245308922978</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01955282629010093</v>
+      </c>
+      <c r="C58">
+        <v>-0.1128250377055695</v>
+      </c>
+      <c r="D58">
+        <v>-0.05243974978584919</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006793479370856051</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009183714644094296</v>
+      </c>
+      <c r="C59">
+        <v>-0.1619023436423214</v>
+      </c>
+      <c r="D59">
+        <v>0.3060046664355263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004299874376285976</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02296924872174252</v>
+      </c>
+      <c r="C60">
+        <v>-0.2214686782542337</v>
+      </c>
+      <c r="D60">
+        <v>-0.02336513522945456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01404205292026568</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002114166812709785</v>
+      </c>
+      <c r="C61">
+        <v>-0.09495204935746357</v>
+      </c>
+      <c r="D61">
+        <v>-0.05768165768075029</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1686006093043299</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1443144743439758</v>
+      </c>
+      <c r="C62">
+        <v>-0.08929806220154327</v>
+      </c>
+      <c r="D62">
+        <v>-0.05228649399482407</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001267981679239274</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006089766537633074</v>
+      </c>
+      <c r="C63">
+        <v>-0.05641144607660648</v>
+      </c>
+      <c r="D63">
+        <v>-0.02516186140384792</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0049895095339862</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01484999053620601</v>
+      </c>
+      <c r="C64">
+        <v>-0.1045385950640955</v>
+      </c>
+      <c r="D64">
+        <v>-0.05765066262297451</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002162321582192765</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01742361178071656</v>
+      </c>
+      <c r="C65">
+        <v>-0.1210940446976734</v>
+      </c>
+      <c r="D65">
+        <v>-0.01701044606613966</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007228604109702287</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01244370531504625</v>
+      </c>
+      <c r="C66">
+        <v>-0.1594577427897149</v>
+      </c>
+      <c r="D66">
+        <v>-0.1125906961803058</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003996718328858167</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01545379666602638</v>
+      </c>
+      <c r="C67">
+        <v>-0.06404146261920697</v>
+      </c>
+      <c r="D67">
+        <v>-0.02710022831626775</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006198579300621207</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0004995340739523584</v>
+      </c>
+      <c r="C68">
+        <v>-0.08826526589214803</v>
+      </c>
+      <c r="D68">
+        <v>0.2538694777818211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002853462229216073</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006003451954644116</v>
+      </c>
+      <c r="C69">
+        <v>-0.05071824026944177</v>
+      </c>
+      <c r="D69">
+        <v>-0.03978651948537185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0002674440241701584</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001886881442796132</v>
+      </c>
+      <c r="C70">
+        <v>-0.002914471044635078</v>
+      </c>
+      <c r="D70">
+        <v>-0.001262147120643051</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0001957701813040156</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005695306832898515</v>
+      </c>
+      <c r="C71">
+        <v>-0.09794319333410942</v>
+      </c>
+      <c r="D71">
+        <v>0.3006642894254752</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004757490745085862</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01567405540570984</v>
+      </c>
+      <c r="C72">
+        <v>-0.1516348517623457</v>
+      </c>
+      <c r="D72">
+        <v>-0.02376094370831027</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01245272285842557</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02909548624837929</v>
+      </c>
+      <c r="C73">
+        <v>-0.2764185263457257</v>
+      </c>
+      <c r="D73">
+        <v>-0.04466173898253684</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00500148027611011</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001462688455106066</v>
+      </c>
+      <c r="C74">
+        <v>-0.1045285932866222</v>
+      </c>
+      <c r="D74">
+        <v>-0.0413107377759167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002322562698287578</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01070025475662207</v>
+      </c>
+      <c r="C75">
+        <v>-0.1296719115871612</v>
+      </c>
+      <c r="D75">
+        <v>-0.02434791046715518</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009293645180840068</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.0214466109603427</v>
+      </c>
+      <c r="C76">
+        <v>-0.1504935448469016</v>
+      </c>
+      <c r="D76">
+        <v>-0.06682987936393843</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0006861665834033347</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02340363058616004</v>
+      </c>
+      <c r="C77">
+        <v>-0.1324638414504818</v>
+      </c>
+      <c r="D77">
+        <v>-0.03934520633959244</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0009030356113628129</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01440405160265347</v>
+      </c>
+      <c r="C78">
+        <v>-0.09535884449642895</v>
+      </c>
+      <c r="D78">
+        <v>-0.06509017221957092</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.0235937894169331</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03718438763153028</v>
+      </c>
+      <c r="C79">
+        <v>-0.1560536277522981</v>
+      </c>
+      <c r="D79">
+        <v>-0.03659369861944464</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004482526161849171</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01058779045923838</v>
+      </c>
+      <c r="C80">
+        <v>-0.04336140583856576</v>
+      </c>
+      <c r="D80">
+        <v>-0.02843064009688316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0009395707928050803</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01472914601293899</v>
+      </c>
+      <c r="C81">
+        <v>-0.1262721739952115</v>
+      </c>
+      <c r="D81">
+        <v>-0.04596803892253729</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005813140532584369</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01966082965135946</v>
+      </c>
+      <c r="C82">
+        <v>-0.1445481411254052</v>
+      </c>
+      <c r="D82">
+        <v>-0.04434818687525229</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009071587791048863</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009990822643007288</v>
+      </c>
+      <c r="C83">
+        <v>-0.0572159425311364</v>
+      </c>
+      <c r="D83">
+        <v>-0.05561400068299169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01331033588674475</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01166924657796573</v>
+      </c>
+      <c r="C84">
+        <v>-0.03793206047217917</v>
+      </c>
+      <c r="D84">
+        <v>0.00714881865509561</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01459155730380957</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02788185339161515</v>
+      </c>
+      <c r="C85">
+        <v>-0.1291792054677379</v>
+      </c>
+      <c r="D85">
+        <v>-0.04674446387821982</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0008057015717083218</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005436516114999419</v>
+      </c>
+      <c r="C86">
+        <v>-0.05042987022042396</v>
+      </c>
+      <c r="D86">
+        <v>-0.02333498940999662</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004633753977258294</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01025847838905997</v>
+      </c>
+      <c r="C87">
+        <v>-0.1330821602186626</v>
+      </c>
+      <c r="D87">
+        <v>-0.06266179429863031</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01288845441663609</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003098035246567967</v>
+      </c>
+      <c r="C88">
+        <v>-0.06731309500103559</v>
+      </c>
+      <c r="D88">
+        <v>-0.00873837892613156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01428282905080502</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.00201969240179008</v>
+      </c>
+      <c r="C89">
+        <v>-0.1454812759182143</v>
+      </c>
+      <c r="D89">
+        <v>0.3454740488946443</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002117077449400653</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006553612143423276</v>
+      </c>
+      <c r="C90">
+        <v>-0.1225498094573375</v>
+      </c>
+      <c r="D90">
+        <v>0.3248463578312446</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001322782741682049</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01025036040698661</v>
+      </c>
+      <c r="C91">
+        <v>-0.103442297369665</v>
+      </c>
+      <c r="D91">
+        <v>-0.02433959731550761</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008456167498545891</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.000329616574390715</v>
+      </c>
+      <c r="C92">
+        <v>-0.1354306506291219</v>
+      </c>
+      <c r="D92">
+        <v>0.3349986484846824</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0002546343271149401</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004554097120817421</v>
+      </c>
+      <c r="C93">
+        <v>-0.1054585271425111</v>
+      </c>
+      <c r="D93">
+        <v>0.313290772445275</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004183816620331702</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02223047676498895</v>
+      </c>
+      <c r="C94">
+        <v>-0.1512220707813708</v>
+      </c>
+      <c r="D94">
+        <v>-0.04976028227109942</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005277856472223103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01600615637698791</v>
+      </c>
+      <c r="C95">
+        <v>-0.1267236017163924</v>
+      </c>
+      <c r="D95">
+        <v>-0.06419403902098859</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002061309718815831</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03447894985234014</v>
+      </c>
+      <c r="C97">
+        <v>-0.1994432881447369</v>
+      </c>
+      <c r="D97">
+        <v>-0.004177768611363055</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004201969772910358</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03592515374718347</v>
+      </c>
+      <c r="C98">
+        <v>-0.2458606553395794</v>
+      </c>
+      <c r="D98">
+        <v>-0.05167734220122196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.98379252373383</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9826309682988246</v>
+      </c>
+      <c r="C99">
+        <v>0.1123715593263803</v>
+      </c>
+      <c r="D99">
+        <v>0.02877527675328255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.000870824096228585</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003065889766648522</v>
+      </c>
+      <c r="C101">
+        <v>-0.04968791887578931</v>
+      </c>
+      <c r="D101">
+        <v>-0.004366157254847814</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
